--- a/DATA_goal/Junction_Flooding_366.xlsx
+++ b/DATA_goal/Junction_Flooding_366.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z3" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2</v>
+        <v>20.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.71</v>
+        <v>67.06</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_366.xlsx
+++ b/DATA_goal/Junction_Flooding_366.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.04861111111</v>
+        <v>45047.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.05555555555</v>
+        <v>45047.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.6</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.16</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.685</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.73</v>
+        <v>26.538</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.62</v>
+        <v>21.974</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.86</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.57</v>
+        <v>40.516</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.31</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.84</v>
+        <v>6.486</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.49</v>
+        <v>9.851000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.61</v>
+        <v>10.654</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.06</v>
+        <v>11.081</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.94</v>
+        <v>3.142</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.33</v>
+        <v>13.768</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.48</v>
+        <v>8.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.25</v>
+        <v>141.476</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.94</v>
+        <v>27.438</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.89</v>
+        <v>18.145</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.61</v>
+        <v>9.709</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.03</v>
+        <v>19.137</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.55</v>
+        <v>7.251</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.37</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.7</v>
+        <v>11.075</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.92</v>
+        <v>36.658</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.96</v>
+        <v>4.984</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.0625</v>
+        <v>45047.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.17</v>
+        <v>17.295</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.31</v>
+        <v>12.543</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.353</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.63</v>
+        <v>37.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.42</v>
+        <v>30.792</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.77</v>
+        <v>13.611</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.03</v>
+        <v>52.276</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.56</v>
+        <v>20.942</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.17</v>
+        <v>9.195</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.53</v>
+        <v>13.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.41</v>
+        <v>14.995</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.8</v>
+        <v>15.681</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.57</v>
+        <v>4.347</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>13.535</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.8</v>
+        <v>19.186</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.42</v>
+        <v>11.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.093</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.835</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.06</v>
+        <v>198.687</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.71</v>
+        <v>37.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>12.493</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>25.298</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.62</v>
+        <v>13.503</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.664</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.58</v>
+        <v>25.249</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.98</v>
+        <v>11.035</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.68</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.33</v>
+        <v>11.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.52</v>
+        <v>15.678</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.46</v>
+        <v>47.141</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.41</v>
+        <v>6.995</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.64</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.06944444445</v>
+        <v>45047.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.3</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.25</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.66</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.36</v>
+        <v>52.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.43</v>
+        <v>43.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.53</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.27</v>
+        <v>74.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.07</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.69</v>
+        <v>13.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.3</v>
+        <v>19.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.91</v>
+        <v>21.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.16</v>
+        <v>22.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.85</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.63</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.65</v>
+        <v>27.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.47</v>
+        <v>16.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.75</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.49</v>
+        <v>53.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.43</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.79</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.46</v>
+        <v>19.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.66</v>
+        <v>2.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.75</v>
+        <v>36.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.15</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.03</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.38</v>
+        <v>16.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.95</v>
+        <v>22.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.45</v>
+        <v>67.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.26</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_366.xlsx
+++ b/DATA_goal/Junction_Flooding_366.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45047.50694444445</v>
+        <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.06</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.922</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.233</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.559</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.17</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.148</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.258</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.923</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.884</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.312</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.215</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.154</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.794</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.046</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.401</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.061</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.797</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.462</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.342</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.257</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.657</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.391</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.393</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.943</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.713</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.198</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.441</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.895</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.246</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.286</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.825</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45047.51388888889</v>
+        <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.491</v>
+        <v>7.602</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.701000000000001</v>
+        <v>5.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.685</v>
+        <v>1.466</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.538</v>
+        <v>16.727</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.974</v>
+        <v>12.624</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.83</v>
+        <v>5.862</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40.516</v>
+        <v>24.571</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.125</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.486</v>
+        <v>3.844</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.851000000000001</v>
+        <v>5.487</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.654</v>
+        <v>6.607</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.081</v>
+        <v>7.065</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.142</v>
+        <v>1.935</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.775</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.768</v>
+        <v>8.334</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.4</v>
+        <v>5.479</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.595</v>
+        <v>1.383</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.764</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.476</v>
+        <v>84.248</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.438</v>
+        <v>16.938</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.023</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.145</v>
+        <v>10.891</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.709</v>
+        <v>5.615</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.149</v>
+        <v>1.427</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.137</v>
+        <v>12.03</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.97</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.251</v>
+        <v>4.552</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.478999999999999</v>
+        <v>5.374</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.075</v>
+        <v>6.697</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.658</v>
+        <v>22.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.984</v>
+        <v>2.959</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.281</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45047.52083333334</v>
+        <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.295</v>
+        <v>6.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.543</v>
+        <v>4.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.353</v>
+        <v>0.961</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.21</v>
+        <v>13.627</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.792</v>
+        <v>10.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.611</v>
+        <v>4.769</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.276</v>
+        <v>20.028</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.942</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.195</v>
+        <v>3.175</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.82</v>
+        <v>4.527</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.995</v>
+        <v>5.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.681</v>
+        <v>5.801</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.347</v>
+        <v>1.571</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.535</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.186</v>
+        <v>6.797</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.48</v>
+        <v>4.416</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.093</v>
+        <v>0.914</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.835</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.687</v>
+        <v>67.063</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.83</v>
+        <v>13.715</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.493</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.298</v>
+        <v>8.885</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.503</v>
+        <v>4.624</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.664</v>
+        <v>1.061</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.249</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.035</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.58</v>
+        <v>4.328</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.678</v>
+        <v>5.524</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>47.141</v>
+        <v>18.456</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.995</v>
+        <v>2.415</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.619</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45047.52777777778</v>
+        <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>3.295</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.07</v>
+        <v>2.254</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.658</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.99</v>
+        <v>7.357</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.83</v>
+        <v>5.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.28</v>
+        <v>2.528</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.06</v>
+        <v>12.275</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>4.072</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.18</v>
+        <v>1.688</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.72</v>
+        <v>2.303</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.35</v>
+        <v>2.914</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.41</v>
+        <v>3.156</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>0.851</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>2.632</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.3</v>
+        <v>3.651</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.11</v>
+        <v>2.469</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.671</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.54</v>
+        <v>32.747</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.61</v>
+        <v>7.488</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>2.429</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.06</v>
+        <v>4.793</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.13</v>
+        <v>2.465</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.661</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.06</v>
+        <v>5.747</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>2.146</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.86</v>
+        <v>2.029</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.29</v>
+        <v>2.377</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.37</v>
+        <v>2.947</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>11.451</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.039</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>67.06</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_366.xlsx
+++ b/DATA_goal/Junction_Flooding_366.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.04861111111</v>
+        <v>45047.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.315</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.452</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.548</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.929</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.407</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.081</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.367</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.452</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.022</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.134</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.887</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.618</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.279</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.513</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.993</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.077</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.709</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.411</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.071</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.298</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.945</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.697</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.196</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.398</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.994999999999999</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.384</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.078</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.175</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.636</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.015</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.05555555555</v>
+        <v>45047.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.602</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.16</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.466</v>
+        <v>1.685</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.727</v>
+        <v>26.538</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.624</v>
+        <v>21.974</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.862</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.571</v>
+        <v>40.516</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.308</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.844</v>
+        <v>6.486</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.487</v>
+        <v>9.851000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.607</v>
+        <v>10.654</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.065</v>
+        <v>11.081</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.935</v>
+        <v>3.142</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.334</v>
+        <v>13.768</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.479</v>
+        <v>8.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.383</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.764</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.248</v>
+        <v>141.476</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.938</v>
+        <v>27.438</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.891</v>
+        <v>18.145</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.615</v>
+        <v>9.709</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.427</v>
+        <v>1.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.03</v>
+        <v>19.137</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.552</v>
+        <v>7.251</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.374</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.697</v>
+        <v>11.075</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.199</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.92</v>
+        <v>36.658</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.959</v>
+        <v>4.984</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.942</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.0625</v>
+        <v>45047.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.17</v>
+        <v>17.295</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.31</v>
+        <v>12.543</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.961</v>
+        <v>1.353</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.627</v>
+        <v>37.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.42</v>
+        <v>30.792</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.769</v>
+        <v>13.611</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.028</v>
+        <v>52.276</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.562</v>
+        <v>20.942</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.175</v>
+        <v>9.195</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.527</v>
+        <v>13.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.41</v>
+        <v>14.995</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.801</v>
+        <v>15.681</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.571</v>
+        <v>4.347</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>13.535</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.797</v>
+        <v>19.186</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.416</v>
+        <v>11.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.914</v>
+        <v>1.093</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.511</v>
+        <v>0.835</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.063</v>
+        <v>198.687</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.715</v>
+        <v>37.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>12.493</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.885</v>
+        <v>25.298</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.624</v>
+        <v>13.503</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.061</v>
+        <v>1.664</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.585000000000001</v>
+        <v>25.249</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.985</v>
+        <v>11.035</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.68</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.328</v>
+        <v>11.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.524</v>
+        <v>15.678</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.747</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.456</v>
+        <v>47.141</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.415</v>
+        <v>6.995</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.641</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.06944444445</v>
+        <v>45047.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.295</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.254</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.658</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.357</v>
+        <v>52.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.43</v>
+        <v>43.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.528</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.275</v>
+        <v>74.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.072</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.688</v>
+        <v>13.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.303</v>
+        <v>19.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.914</v>
+        <v>21.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.156</v>
+        <v>22.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.851</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.632</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.651</v>
+        <v>27.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.469</v>
+        <v>16.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.671</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.747</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.488</v>
+        <v>53.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.429</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.793</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.465</v>
+        <v>19.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.661</v>
+        <v>2.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.747</v>
+        <v>36.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.146</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.029</v>
+        <v>13.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.377</v>
+        <v>16.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.947</v>
+        <v>22.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.451</v>
+        <v>67.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.258</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.039</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
